--- a/data/financial_statements/sofp/PAYC.xlsx
+++ b/data/financial_statements/sofp/PAYC.xlsx
@@ -14,9 +14,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Cash and Short Term Investments</t>
@@ -140,9 +257,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -195,12 +309,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -505,144 +616,144 @@
   <sheetData>
     <row r="1" spans="1:40">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B2">
-        <v>317000000</v>
+        <v>317163000</v>
       </c>
       <c r="C2">
-        <v>279000000</v>
+        <v>279039000</v>
       </c>
       <c r="D2">
-        <v>361000000</v>
+        <v>360594000</v>
       </c>
       <c r="E2">
-        <v>278000000</v>
+        <v>277978000</v>
       </c>
       <c r="F2">
-        <v>231000000</v>
+        <v>230926000</v>
       </c>
       <c r="G2">
         <v>202362000</v>
@@ -739,23 +850,23 @@
       </c>
     </row>
     <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+      <c r="A3" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B3">
-        <v>30000000</v>
+        <v>30064000</v>
       </c>
       <c r="C3">
-        <v>20000000</v>
+        <v>20298000</v>
       </c>
       <c r="D3">
-        <v>18000000</v>
+        <v>17945000</v>
       </c>
       <c r="E3">
-        <v>26000000</v>
+        <v>25903000</v>
       </c>
       <c r="F3">
-        <v>23000000</v>
+        <v>23215000</v>
       </c>
       <c r="G3">
         <v>27902000</v>
@@ -852,23 +963,23 @@
       </c>
     </row>
     <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+      <c r="A4" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B4">
-        <v>1000000</v>
+        <v>1471000</v>
       </c>
       <c r="C4">
-        <v>2000000</v>
+        <v>1647000</v>
       </c>
       <c r="D4">
-        <v>1000000</v>
+        <v>732000</v>
       </c>
       <c r="E4">
-        <v>1000000</v>
+        <v>1131000</v>
       </c>
       <c r="F4">
-        <v>1000000</v>
+        <v>866000</v>
       </c>
       <c r="G4">
         <v>882000</v>
@@ -965,23 +1076,23 @@
       </c>
     </row>
     <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+      <c r="A5" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B5">
-        <v>1789000000</v>
+        <v>1749115000</v>
       </c>
       <c r="C5">
-        <v>3461000000</v>
+        <v>3423181000</v>
       </c>
       <c r="D5">
-        <v>3973000000</v>
+        <v>3944363000</v>
       </c>
       <c r="E5">
-        <v>1870000000</v>
+        <v>1846573000</v>
       </c>
       <c r="F5">
-        <v>2987000000</v>
+        <v>2959973000</v>
       </c>
       <c r="G5">
         <v>2025372000</v>
@@ -1078,23 +1189,23 @@
       </c>
     </row>
     <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="A6" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B6">
-        <v>2138000000</v>
+        <v>2228362000</v>
       </c>
       <c r="C6">
-        <v>3762000000</v>
+        <v>3847992000</v>
       </c>
       <c r="D6">
-        <v>4352000000</v>
+        <v>4434296000</v>
       </c>
       <c r="E6">
-        <v>2175000000</v>
+        <v>2252038000</v>
       </c>
       <c r="F6">
-        <v>3242000000</v>
+        <v>3313182000</v>
       </c>
       <c r="G6">
         <v>2356522000</v>
@@ -1191,23 +1302,23 @@
       </c>
     </row>
     <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="A7" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B7">
-        <v>384000000</v>
+        <v>383860000</v>
       </c>
       <c r="C7">
-        <v>375000000</v>
+        <v>374940000</v>
       </c>
       <c r="D7">
-        <v>363000000</v>
+        <v>362505000</v>
       </c>
       <c r="E7">
-        <v>379000000</v>
+        <v>348953000</v>
       </c>
       <c r="F7">
-        <v>329000000</v>
+        <v>329296000</v>
       </c>
       <c r="G7">
         <v>320997000</v>
@@ -1304,23 +1415,23 @@
       </c>
     </row>
     <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+      <c r="A8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B8">
-        <v>107000000</v>
+        <v>106882000</v>
       </c>
       <c r="C8">
-        <v>108000000</v>
+        <v>107858000</v>
       </c>
       <c r="D8">
-        <v>109000000</v>
+        <v>108888000</v>
       </c>
       <c r="E8">
-        <v>110000000</v>
+        <v>109917000</v>
       </c>
       <c r="F8">
-        <v>111000000</v>
+        <v>110946000</v>
       </c>
       <c r="G8">
         <v>111976000</v>
@@ -1426,8 +1537,8 @@
       </c>
     </row>
     <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+      <c r="A9" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="V9">
         <v>5440000</v>
@@ -1452,23 +1563,23 @@
       </c>
     </row>
     <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+      <c r="A10" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B10">
-        <v>686000000</v>
+        <v>58524000</v>
       </c>
       <c r="C10">
-        <v>647000000</v>
+        <v>48956000</v>
       </c>
       <c r="D10">
-        <v>621000000</v>
+        <v>45355000</v>
       </c>
       <c r="E10">
-        <v>551000000</v>
+        <v>42385000</v>
       </c>
       <c r="F10">
-        <v>536000000</v>
+        <v>33853000</v>
       </c>
       <c r="G10">
         <v>443592000</v>
@@ -1565,8 +1676,8 @@
       </c>
     </row>
     <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+      <c r="A11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B11">
         <v>1086208000</v>
@@ -1678,23 +1789,23 @@
       </c>
     </row>
     <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B12">
-        <v>3315000000</v>
+        <v>3314570000</v>
       </c>
       <c r="C12">
-        <v>4892000000</v>
+        <v>4891703000</v>
       </c>
       <c r="D12">
-        <v>5445000000</v>
+        <v>5444574000</v>
       </c>
       <c r="E12">
-        <v>3215000000</v>
+        <v>3215145000</v>
       </c>
       <c r="F12">
-        <v>4218000000</v>
+        <v>4218038000</v>
       </c>
       <c r="G12">
         <v>3233087000</v>
@@ -1800,23 +1911,23 @@
       </c>
     </row>
     <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B13">
-        <v>10000000</v>
+        <v>10211000</v>
       </c>
       <c r="C13">
-        <v>13000000</v>
+        <v>13475000</v>
       </c>
       <c r="D13">
-        <v>12000000</v>
+        <v>12192000</v>
       </c>
       <c r="E13">
-        <v>6000000</v>
+        <v>5772000</v>
       </c>
       <c r="F13">
-        <v>9000000</v>
+        <v>9441000</v>
       </c>
       <c r="G13">
         <v>9220000</v>
@@ -1913,8 +2024,8 @@
       </c>
     </row>
     <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B14">
         <v>113903000</v>
@@ -2026,17 +2137,17 @@
       </c>
     </row>
     <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+      <c r="A15" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D15">
-        <v>2000000</v>
+        <v>1775000</v>
       </c>
       <c r="E15">
-        <v>13000000</v>
+        <v>1775000</v>
       </c>
       <c r="F15">
-        <v>2000000</v>
+        <v>1775000</v>
       </c>
       <c r="G15">
         <v>1775000</v>
@@ -2133,8 +2244,8 @@
       </c>
     </row>
     <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+      <c r="A16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="AL16">
         <v>0</v>
@@ -2147,8 +2258,8 @@
       </c>
     </row>
     <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+      <c r="A17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="D17">
         <v>23180000</v>
@@ -2200,8 +2311,8 @@
       </c>
     </row>
     <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
+      <c r="A18" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B18">
         <v>19546000</v>
@@ -2313,23 +2424,23 @@
       </c>
     </row>
     <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+      <c r="A19" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="B19">
-        <v>1888000000</v>
+        <v>1754095000</v>
       </c>
       <c r="C19">
-        <v>3555000000</v>
+        <v>3425573000</v>
       </c>
       <c r="D19">
-        <v>4075000000</v>
+        <v>3946103000</v>
       </c>
       <c r="E19">
-        <v>1972000000</v>
+        <v>1846573000</v>
       </c>
       <c r="F19">
-        <v>3075000000</v>
+        <v>2959973000</v>
       </c>
       <c r="G19">
         <v>2025372000</v>
@@ -2426,23 +2537,23 @@
       </c>
     </row>
     <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+      <c r="A20" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B20">
-        <v>1898000000</v>
+        <v>1897755000</v>
       </c>
       <c r="C20">
-        <v>3568000000</v>
+        <v>3568472000</v>
       </c>
       <c r="D20">
-        <v>4113000000</v>
+        <v>4112531000</v>
       </c>
       <c r="E20">
-        <v>1990000000</v>
+        <v>1990410000</v>
       </c>
       <c r="F20">
-        <v>3086000000</v>
+        <v>3086273000</v>
       </c>
       <c r="G20">
         <v>2145208000</v>
@@ -2539,8 +2650,8 @@
       </c>
     </row>
     <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+      <c r="A21" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B21">
         <v>29000000</v>
@@ -2549,13 +2660,13 @@
         <v>29000000</v>
       </c>
       <c r="D21">
-        <v>27000000</v>
+        <v>26945000</v>
       </c>
       <c r="E21">
-        <v>47000000</v>
+        <v>27380000</v>
       </c>
       <c r="F21">
-        <v>28000000</v>
+        <v>27815000</v>
       </c>
       <c r="G21">
         <v>28250000</v>
@@ -2652,23 +2763,23 @@
       </c>
     </row>
     <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+      <c r="A22" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B22">
-        <v>94000000</v>
+        <v>94465000</v>
       </c>
       <c r="C22">
-        <v>91000000</v>
+        <v>90960000</v>
       </c>
       <c r="D22">
-        <v>88000000</v>
+        <v>87681000</v>
       </c>
       <c r="E22">
-        <v>85000000</v>
+        <v>85149000</v>
       </c>
       <c r="F22">
-        <v>82000000</v>
+        <v>81702000</v>
       </c>
       <c r="G22">
         <v>77512000</v>
@@ -2774,23 +2885,23 @@
       </c>
     </row>
     <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+      <c r="A23" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B23">
-        <v>139000000</v>
+        <v>139368000</v>
       </c>
       <c r="C23">
-        <v>135000000</v>
+        <v>135282000</v>
       </c>
       <c r="D23">
-        <v>135000000</v>
+        <v>134769000</v>
       </c>
       <c r="E23">
-        <v>146000000</v>
+        <v>145504000</v>
       </c>
       <c r="F23">
-        <v>125000000</v>
+        <v>125228000</v>
       </c>
       <c r="G23">
         <v>119083000</v>
@@ -2866,8 +2977,8 @@
       </c>
     </row>
     <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+      <c r="A24" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -2880,23 +2991,23 @@
       </c>
     </row>
     <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+      <c r="A25" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B25">
-        <v>78000000</v>
+        <v>77602000</v>
       </c>
       <c r="C25">
-        <v>74000000</v>
+        <v>73850000</v>
       </c>
       <c r="D25">
-        <v>74000000</v>
+        <v>73628000</v>
       </c>
       <c r="E25">
-        <v>53000000</v>
+        <v>72988000</v>
       </c>
       <c r="F25">
-        <v>72000000</v>
+        <v>71679000</v>
       </c>
       <c r="G25">
         <v>70778000</v>
@@ -2939,8 +3050,8 @@
       </c>
     </row>
     <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+      <c r="A26" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B26">
         <v>340435000</v>
@@ -3052,23 +3163,23 @@
       </c>
     </row>
     <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+      <c r="A27" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B27">
-        <v>2238000000</v>
+        <v>2238190000</v>
       </c>
       <c r="C27">
-        <v>3898000000</v>
+        <v>3897564000</v>
       </c>
       <c r="D27">
-        <v>4436000000</v>
+        <v>4435554000</v>
       </c>
       <c r="E27">
-        <v>2321000000</v>
+        <v>2321431000</v>
       </c>
       <c r="F27">
-        <v>3393000000</v>
+        <v>3392697000</v>
       </c>
       <c r="G27">
         <v>2440831000</v>
@@ -3174,8 +3285,8 @@
       </c>
     </row>
     <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B28">
         <v>550302000</v>
@@ -3296,8 +3407,8 @@
       </c>
     </row>
     <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+      <c r="A29" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -3310,23 +3421,23 @@
       </c>
     </row>
     <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
+      <c r="A30" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B30">
-        <v>1000000</v>
+        <v>625000</v>
       </c>
       <c r="C30">
-        <v>1000000</v>
+        <v>625000</v>
       </c>
       <c r="D30">
-        <v>1000000</v>
+        <v>623000</v>
       </c>
       <c r="E30">
-        <v>1000000</v>
+        <v>623000</v>
       </c>
       <c r="F30">
-        <v>1000000</v>
+        <v>622000</v>
       </c>
       <c r="G30">
         <v>621000</v>
@@ -3432,23 +3543,23 @@
       </c>
     </row>
     <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+      <c r="A31" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="B31">
-        <v>1117000000</v>
+        <v>1117017000</v>
       </c>
       <c r="C31">
-        <v>1065000000</v>
+        <v>1064864000</v>
       </c>
       <c r="D31">
-        <v>1008000000</v>
+        <v>1007509000</v>
       </c>
       <c r="E31">
-        <v>916000000</v>
+        <v>915579000</v>
       </c>
       <c r="F31">
-        <v>867000000</v>
+        <v>866892000</v>
       </c>
       <c r="G31">
         <v>836513000</v>
@@ -3545,8 +3656,8 @@
       </c>
     </row>
     <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
+      <c r="A32" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B32">
         <v>587751000</v>
@@ -3637,8 +3748,8 @@
       </c>
     </row>
     <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+      <c r="A33" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="AL33">
         <v>0</v>
@@ -3651,23 +3762,23 @@
       </c>
     </row>
     <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B34">
-        <v>1076000000</v>
+        <v>1076380000</v>
       </c>
       <c r="C34">
-        <v>994000000</v>
+        <v>994139000</v>
       </c>
       <c r="D34">
-        <v>1009000000</v>
+        <v>1009020000</v>
       </c>
       <c r="E34">
-        <v>894000000</v>
+        <v>893713900</v>
       </c>
       <c r="F34">
-        <v>825000000</v>
+        <v>825341100</v>
       </c>
       <c r="G34">
         <v>792256000</v>
@@ -3764,23 +3875,23 @@
       </c>
     </row>
     <row r="35" spans="1:40">
-      <c r="A35" t="s">
-        <v>34</v>
+      <c r="A35" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B35">
-        <v>1076000000</v>
+        <v>1076380000</v>
       </c>
       <c r="C35">
-        <v>994000000</v>
+        <v>994139000</v>
       </c>
       <c r="D35">
-        <v>1009000000</v>
+        <v>1009020000</v>
       </c>
       <c r="E35">
-        <v>894000000</v>
+        <v>893714000</v>
       </c>
       <c r="F35">
-        <v>825000000</v>
+        <v>825341000</v>
       </c>
       <c r="G35">
         <v>792256000</v>
@@ -3886,8 +3997,8 @@
       </c>
     </row>
     <row r="36" spans="1:40">
-      <c r="A36" t="s">
-        <v>35</v>
+      <c r="A36" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="B36">
         <v>3314570000</v>
@@ -4008,8 +4119,8 @@
       </c>
     </row>
     <row r="37" spans="1:40">
-      <c r="A37" t="s">
-        <v>36</v>
+      <c r="A37" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B37">
         <v>57867000</v>
@@ -4121,8 +4232,8 @@
       </c>
     </row>
     <row r="38" spans="1:40">
-      <c r="A38" t="s">
-        <v>37</v>
+      <c r="A38" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="B38">
         <v>969498100</v>
@@ -4234,23 +4345,23 @@
       </c>
     </row>
     <row r="39" spans="1:40">
-      <c r="A39" t="s">
-        <v>38</v>
+      <c r="A39" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="B39">
-        <v>-288000000</v>
+        <v>-288163000</v>
       </c>
       <c r="C39">
-        <v>-250000000</v>
+        <v>-250039000</v>
       </c>
       <c r="D39">
-        <v>-332000000</v>
+        <v>-331874000</v>
       </c>
       <c r="E39">
-        <v>-218000000</v>
+        <v>-248823000</v>
       </c>
       <c r="F39">
-        <v>-201000000</v>
+        <v>-201336000</v>
       </c>
       <c r="G39">
         <v>-172337000</v>
@@ -4347,8 +4458,8 @@
       </c>
     </row>
     <row r="40" spans="1:40">
-      <c r="A40" t="s">
-        <v>39</v>
+      <c r="A40" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="B40">
         <v>29000000</v>
@@ -4357,13 +4468,13 @@
         <v>29000000</v>
       </c>
       <c r="D40">
-        <v>29000000</v>
+        <v>28720000</v>
       </c>
       <c r="E40">
-        <v>60000000</v>
+        <v>29155000</v>
       </c>
       <c r="F40">
-        <v>30000000</v>
+        <v>29590000</v>
       </c>
       <c r="G40">
         <v>30025000</v>
